--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fn1-Plaur.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Fn1-Plaur.xlsx
@@ -543,16 +543,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H2">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I2">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J2">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>14.4437745</v>
+        <v>44.917469</v>
       </c>
       <c r="N2">
-        <v>28.887549</v>
+        <v>89.83493799999999</v>
       </c>
       <c r="O2">
-        <v>0.1011784119468053</v>
+        <v>0.1822888946806947</v>
       </c>
       <c r="P2">
-        <v>0.07108478932534294</v>
+        <v>0.1310339777180443</v>
       </c>
       <c r="Q2">
-        <v>588.3665115095348</v>
+        <v>1214.735859001901</v>
       </c>
       <c r="R2">
-        <v>2353.466046038139</v>
+        <v>4858.943436007604</v>
       </c>
       <c r="S2">
-        <v>0.005633484310823783</v>
+        <v>0.004833362888052721</v>
       </c>
       <c r="T2">
-        <v>0.002720178079822632</v>
+        <v>0.002349561462546736</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H3">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I3">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J3">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>20.16829</v>
       </c>
       <c r="O3">
-        <v>0.04709285083070759</v>
+        <v>0.02728303986213551</v>
       </c>
       <c r="P3">
-        <v>0.04962894725691061</v>
+        <v>0.02941763328729693</v>
       </c>
       <c r="Q3">
-        <v>273.851465220365</v>
+        <v>181.8085897178033</v>
       </c>
       <c r="R3">
-        <v>1643.10879132219</v>
+        <v>1090.85153830682</v>
       </c>
       <c r="S3">
-        <v>0.002622069581861357</v>
+        <v>0.0007234057377652988</v>
       </c>
       <c r="T3">
-        <v>0.001899134480585597</v>
+        <v>0.0005274856086555845</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H4">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I4">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J4">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>46.33817233333334</v>
+        <v>70.42679733333334</v>
       </c>
       <c r="N4">
-        <v>139.014517</v>
+        <v>211.280392</v>
       </c>
       <c r="O4">
-        <v>0.3245981643651428</v>
+        <v>0.2858135894031481</v>
       </c>
       <c r="P4">
-        <v>0.342078784673262</v>
+        <v>0.3081753134575289</v>
       </c>
       <c r="Q4">
-        <v>1887.583387949665</v>
+        <v>1904.60322142059</v>
       </c>
       <c r="R4">
-        <v>11325.50032769799</v>
+        <v>11427.61932852354</v>
       </c>
       <c r="S4">
-        <v>0.01807320979928633</v>
+        <v>0.007578304747209682</v>
       </c>
       <c r="T4">
-        <v>0.01309021550843689</v>
+        <v>0.005525870868135599</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H5">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I5">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J5">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>7.441136999999999</v>
+        <v>8.721912</v>
       </c>
       <c r="N5">
-        <v>14.882274</v>
+        <v>17.443824</v>
       </c>
       <c r="O5">
-        <v>0.05212504700475731</v>
+        <v>0.03539619959402181</v>
       </c>
       <c r="P5">
-        <v>0.03662142855982793</v>
+        <v>0.02544370482376786</v>
       </c>
       <c r="Q5">
-        <v>303.1143845644035</v>
+        <v>235.873024489848</v>
       </c>
       <c r="R5">
-        <v>1212.457538257614</v>
+        <v>943.4920979593919</v>
       </c>
       <c r="S5">
-        <v>0.002902255815762725</v>
+        <v>0.0009385249594909652</v>
       </c>
       <c r="T5">
-        <v>0.001401380072525858</v>
+        <v>0.000456229364012561</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H6">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I6">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J6">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>13.359317</v>
+        <v>86.42400633333334</v>
       </c>
       <c r="N6">
-        <v>40.077951</v>
+        <v>259.272019</v>
       </c>
       <c r="O6">
-        <v>0.09358180430980555</v>
+        <v>0.3507351803010249</v>
       </c>
       <c r="P6">
-        <v>0.09862147541234521</v>
+        <v>0.3781762944007193</v>
       </c>
       <c r="Q6">
-        <v>544.1911835053935</v>
+        <v>2337.227406372951</v>
       </c>
       <c r="R6">
-        <v>3265.147101032361</v>
+        <v>14023.3644382377</v>
       </c>
       <c r="S6">
-        <v>0.005210514933116786</v>
+        <v>0.009299691058914443</v>
       </c>
       <c r="T6">
-        <v>0.00377391532228662</v>
+        <v>0.00678105376061021</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>40.73495550000001</v>
+        <v>27.043729</v>
       </c>
       <c r="H7">
-        <v>81.46991100000001</v>
+        <v>54.087458</v>
       </c>
       <c r="I7">
-        <v>0.05567871843833242</v>
+        <v>0.02651485103642245</v>
       </c>
       <c r="J7">
-        <v>0.03826666865920979</v>
+        <v>0.01793093290354402</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>54.450333</v>
+        <v>29.19520033333334</v>
       </c>
       <c r="N7">
-        <v>163.350999</v>
+        <v>87.58560100000001</v>
       </c>
       <c r="O7">
-        <v>0.3814237215427815</v>
+        <v>0.1184830961589751</v>
       </c>
       <c r="P7">
-        <v>0.4019645747723113</v>
+        <v>0.1277530763126427</v>
       </c>
       <c r="Q7">
-        <v>2218.031891715182</v>
+        <v>789.5470859153763</v>
       </c>
       <c r="R7">
-        <v>13308.19135029109</v>
+        <v>4737.282515492258</v>
       </c>
       <c r="S7">
-        <v>0.02123718399748144</v>
+        <v>0.003141561644989342</v>
       </c>
       <c r="T7">
-        <v>0.0153818451955522</v>
+        <v>0.002290731839583335</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -921,10 +921,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I8">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J8">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K8">
         <v>2</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>14.4437745</v>
+        <v>44.917469</v>
       </c>
       <c r="N8">
-        <v>28.887549</v>
+        <v>89.83493799999999</v>
       </c>
       <c r="O8">
-        <v>0.1011784119468053</v>
+        <v>0.1822888946806947</v>
       </c>
       <c r="P8">
-        <v>0.07108478932534294</v>
+        <v>0.1310339777180443</v>
       </c>
       <c r="Q8">
-        <v>5060.98168651838</v>
+        <v>15738.71760555089</v>
       </c>
       <c r="R8">
-        <v>30365.89011911028</v>
+        <v>94432.30563330535</v>
       </c>
       <c r="S8">
-        <v>0.04845782411242103</v>
+        <v>0.06262343621165187</v>
       </c>
       <c r="T8">
-        <v>0.03509743801715669</v>
+        <v>0.04566311772457152</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -983,10 +983,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I9">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J9">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,10 +1001,10 @@
         <v>20.16829</v>
       </c>
       <c r="O9">
-        <v>0.04709285083070759</v>
+        <v>0.02728303986213551</v>
       </c>
       <c r="P9">
-        <v>0.04962894725691061</v>
+        <v>0.02941763328729693</v>
       </c>
       <c r="Q9">
         <v>2355.601862435422</v>
@@ -1013,10 +1013,10 @@
         <v>21200.4167619188</v>
       </c>
       <c r="S9">
-        <v>0.02255438723140548</v>
+        <v>0.009372801944184167</v>
       </c>
       <c r="T9">
-        <v>0.02450382025096837</v>
+        <v>0.01025154601401627</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1045,10 +1045,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I10">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J10">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>46.33817233333334</v>
+        <v>70.42679733333334</v>
       </c>
       <c r="N10">
-        <v>139.014517</v>
+        <v>211.280392</v>
       </c>
       <c r="O10">
-        <v>0.3245981643651428</v>
+        <v>0.2858135894031481</v>
       </c>
       <c r="P10">
-        <v>0.342078784673262</v>
+        <v>0.3081753134575289</v>
       </c>
       <c r="Q10">
-        <v>16236.52055532525</v>
+        <v>24676.97979805358</v>
       </c>
       <c r="R10">
-        <v>146128.6849979273</v>
+        <v>222092.8181824822</v>
       </c>
       <c r="S10">
-        <v>0.1554612338083596</v>
+        <v>0.09818825834543203</v>
       </c>
       <c r="T10">
-        <v>0.1688981434143989</v>
+        <v>0.1073938673257572</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1107,10 +1107,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I11">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J11">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K11">
         <v>2</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.441136999999999</v>
+        <v>8.721912</v>
       </c>
       <c r="N11">
-        <v>14.882274</v>
+        <v>17.443824</v>
       </c>
       <c r="O11">
-        <v>0.05212504700475731</v>
+        <v>0.03539619959402181</v>
       </c>
       <c r="P11">
-        <v>0.03662142855982793</v>
+        <v>0.02544370482376786</v>
       </c>
       <c r="Q11">
-        <v>2607.31418119788</v>
+        <v>3056.08737545888</v>
       </c>
       <c r="R11">
-        <v>15643.88508718728</v>
+        <v>18336.52425275328</v>
       </c>
       <c r="S11">
-        <v>0.02496447919083951</v>
+        <v>0.01215999280314839</v>
       </c>
       <c r="T11">
-        <v>0.01808148172312378</v>
+        <v>0.008866699377904687</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1169,10 +1169,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I12">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J12">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.359317</v>
+        <v>86.42400633333334</v>
       </c>
       <c r="N12">
-        <v>40.077951</v>
+        <v>259.272019</v>
       </c>
       <c r="O12">
-        <v>0.09358180430980555</v>
+        <v>0.3507351803010249</v>
       </c>
       <c r="P12">
-        <v>0.09862147541234521</v>
+        <v>0.3781762944007193</v>
       </c>
       <c r="Q12">
-        <v>4680.996555394413</v>
+        <v>30282.27236090874</v>
       </c>
       <c r="R12">
-        <v>42128.96899854972</v>
+        <v>272540.4512481787</v>
       </c>
       <c r="S12">
-        <v>0.04481954723455951</v>
+        <v>0.1204913893917508</v>
       </c>
       <c r="T12">
-        <v>0.04869341462915885</v>
+        <v>0.1317880213406987</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1231,10 +1231,10 @@
         <v>1051.17572</v>
       </c>
       <c r="I13">
-        <v>0.4789344206933965</v>
+        <v>0.3435395026194319</v>
       </c>
       <c r="J13">
-        <v>0.4937404802104949</v>
+        <v>0.3484830310412181</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>54.450333</v>
+        <v>29.19520033333334</v>
       </c>
       <c r="N13">
-        <v>163.350999</v>
+        <v>87.58560100000001</v>
       </c>
       <c r="O13">
-        <v>0.3814237215427815</v>
+        <v>0.1184830961589751</v>
       </c>
       <c r="P13">
-        <v>0.4019645747723113</v>
+        <v>0.1277530763126427</v>
       </c>
       <c r="Q13">
-        <v>19078.95599850492</v>
+        <v>10229.76191031197</v>
       </c>
       <c r="R13">
-        <v>171710.6039865443</v>
+        <v>92067.85719280773</v>
       </c>
       <c r="S13">
-        <v>0.1826769491158114</v>
+        <v>0.04070362392326463</v>
       </c>
       <c r="T13">
-        <v>0.1984661821756884</v>
+        <v>0.04451977925826976</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H14">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I14">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J14">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K14">
         <v>2</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>14.4437745</v>
+        <v>44.917469</v>
       </c>
       <c r="N14">
-        <v>28.887549</v>
+        <v>89.83493799999999</v>
       </c>
       <c r="O14">
-        <v>0.1011784119468053</v>
+        <v>0.1822888946806947</v>
       </c>
       <c r="P14">
-        <v>0.07108478932534294</v>
+        <v>0.1310339777180443</v>
       </c>
       <c r="Q14">
-        <v>3521.806807574065</v>
+        <v>17252.46655528002</v>
       </c>
       <c r="R14">
-        <v>21130.84084544439</v>
+        <v>103514.7993316801</v>
       </c>
       <c r="S14">
-        <v>0.03372055174472548</v>
+        <v>0.06864655468735176</v>
       </c>
       <c r="T14">
-        <v>0.02442340316435016</v>
+        <v>0.05005499374835563</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H15">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I15">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J15">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>20.16829</v>
       </c>
       <c r="O15">
-        <v>0.04709285083070759</v>
+        <v>0.02728303986213551</v>
       </c>
       <c r="P15">
-        <v>0.04962894725691061</v>
+        <v>0.02941763328729693</v>
       </c>
       <c r="Q15">
-        <v>1639.202666383545</v>
+        <v>2582.1635134294</v>
       </c>
       <c r="R15">
-        <v>14752.8239974519</v>
+        <v>23239.4716208646</v>
       </c>
       <c r="S15">
-        <v>0.01569501717499188</v>
+        <v>0.01027427749350236</v>
       </c>
       <c r="T15">
-        <v>0.01705157740469888</v>
+        <v>0.01123753911718649</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H16">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I16">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J16">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>46.33817233333334</v>
+        <v>70.42679733333334</v>
       </c>
       <c r="N16">
-        <v>139.014517</v>
+        <v>211.280392</v>
       </c>
       <c r="O16">
-        <v>0.3245981643651428</v>
+        <v>0.2858135894031481</v>
       </c>
       <c r="P16">
-        <v>0.342078784673262</v>
+        <v>0.3081753134575289</v>
       </c>
       <c r="Q16">
-        <v>11298.57647487321</v>
+        <v>27050.41028889712</v>
       </c>
       <c r="R16">
-        <v>101687.1882738589</v>
+        <v>243453.6926000741</v>
       </c>
       <c r="S16">
-        <v>0.1081814686266511</v>
+        <v>0.1076319993585949</v>
       </c>
       <c r="T16">
-        <v>0.1175318679472741</v>
+        <v>0.1177230032786367</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H17">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I17">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J17">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K17">
         <v>2</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.441136999999999</v>
+        <v>8.721912</v>
       </c>
       <c r="N17">
-        <v>14.882274</v>
+        <v>17.443824</v>
       </c>
       <c r="O17">
-        <v>0.05212504700475731</v>
+        <v>0.03539619959402181</v>
       </c>
       <c r="P17">
-        <v>0.03662142855982793</v>
+        <v>0.02544370482376786</v>
       </c>
       <c r="Q17">
-        <v>1814.36278603569</v>
+        <v>3350.02168261296</v>
       </c>
       <c r="R17">
-        <v>10886.17671621414</v>
+        <v>20100.13009567776</v>
       </c>
       <c r="S17">
-        <v>0.0173721380964575</v>
+        <v>0.01332954020820429</v>
       </c>
       <c r="T17">
-        <v>0.01258243743366134</v>
+        <v>0.009719498011646824</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H18">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I18">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J18">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>13.359317</v>
+        <v>86.42400633333334</v>
       </c>
       <c r="N18">
-        <v>40.077951</v>
+        <v>259.272019</v>
       </c>
       <c r="O18">
-        <v>0.09358180430980555</v>
+        <v>0.3507351803010249</v>
       </c>
       <c r="P18">
-        <v>0.09862147541234521</v>
+        <v>0.3781762944007193</v>
       </c>
       <c r="Q18">
-        <v>3257.384941528956</v>
+        <v>33194.81956650634</v>
       </c>
       <c r="R18">
-        <v>29316.46447376061</v>
+        <v>298753.3760985571</v>
       </c>
       <c r="S18">
-        <v>0.0311887685710332</v>
+        <v>0.132080244260005</v>
       </c>
       <c r="T18">
-        <v>0.03388449311757363</v>
+        <v>0.1444633856169472</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>243.8287033333334</v>
+        <v>384.09258</v>
       </c>
       <c r="H19">
-        <v>731.4861100000001</v>
+        <v>1152.27774</v>
       </c>
       <c r="I19">
-        <v>0.3332781281688242</v>
+        <v>0.3765811121275166</v>
       </c>
       <c r="J19">
-        <v>0.3435812836494235</v>
+        <v>0.3820001088272136</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>54.450333</v>
+        <v>29.19520033333334</v>
       </c>
       <c r="N19">
-        <v>163.350999</v>
+        <v>87.58560100000001</v>
       </c>
       <c r="O19">
-        <v>0.3814237215427815</v>
+        <v>0.1184830961589751</v>
       </c>
       <c r="P19">
-        <v>0.4019645747723113</v>
+        <v>0.1277530763126427</v>
       </c>
       <c r="Q19">
-        <v>13276.55409145821</v>
+        <v>11213.65981964686</v>
       </c>
       <c r="R19">
-        <v>119488.9868231239</v>
+        <v>100922.9383768218</v>
       </c>
       <c r="S19">
-        <v>0.1271201839549651</v>
+        <v>0.04461849611985834</v>
       </c>
       <c r="T19">
-        <v>0.1381075045818654</v>
+        <v>0.04880168905444084</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H20">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I20">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J20">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>14.4437745</v>
+        <v>44.917469</v>
       </c>
       <c r="N20">
-        <v>28.887549</v>
+        <v>89.83493799999999</v>
       </c>
       <c r="O20">
-        <v>0.1011784119468053</v>
+        <v>0.1822888946806947</v>
       </c>
       <c r="P20">
-        <v>0.07108478932534294</v>
+        <v>0.1310339777180443</v>
       </c>
       <c r="Q20">
-        <v>362.2836484485555</v>
+        <v>734.970980171362</v>
       </c>
       <c r="R20">
-        <v>1449.134593794222</v>
+        <v>2939.883920685448</v>
       </c>
       <c r="S20">
-        <v>0.003468788943080187</v>
+        <v>0.002924406514412805</v>
       </c>
       <c r="T20">
-        <v>0.001674935639452958</v>
+        <v>0.001421592585996205</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H21">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I21">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J21">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>20.16829</v>
       </c>
       <c r="O21">
-        <v>0.04709285083070759</v>
+        <v>0.02728303986213551</v>
       </c>
       <c r="P21">
-        <v>0.04962894725691061</v>
+        <v>0.02941763328729693</v>
       </c>
       <c r="Q21">
-        <v>168.6226289434366</v>
+        <v>110.0025461488067</v>
       </c>
       <c r="R21">
-        <v>1011.73577366062</v>
+        <v>660.01527689284</v>
       </c>
       <c r="S21">
-        <v>0.00161452583724646</v>
+        <v>0.0004376936930007242</v>
       </c>
       <c r="T21">
-        <v>0.001169382272889358</v>
+        <v>0.0003191530174621081</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H22">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I22">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J22">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>46.33817233333334</v>
+        <v>70.42679733333334</v>
       </c>
       <c r="N22">
-        <v>139.014517</v>
+        <v>211.280392</v>
       </c>
       <c r="O22">
-        <v>0.3245981643651428</v>
+        <v>0.2858135894031481</v>
       </c>
       <c r="P22">
-        <v>0.342078784673262</v>
+        <v>0.3081753134575289</v>
       </c>
       <c r="Q22">
-        <v>1162.269747105088</v>
+        <v>1152.372415872539</v>
       </c>
       <c r="R22">
-        <v>6973.618482630526</v>
+        <v>6914.234495235233</v>
       </c>
       <c r="S22">
-        <v>0.01112848582843847</v>
+        <v>0.004585222397789831</v>
       </c>
       <c r="T22">
-        <v>0.00806023276411021</v>
+        <v>0.003343405645068424</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H23">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I23">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J23">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K23">
         <v>2</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>7.441136999999999</v>
+        <v>8.721912</v>
       </c>
       <c r="N23">
-        <v>14.882274</v>
+        <v>17.443824</v>
       </c>
       <c r="O23">
-        <v>0.05212504700475731</v>
+        <v>0.03539619959402181</v>
       </c>
       <c r="P23">
-        <v>0.03662142855982793</v>
+        <v>0.02544370482376786</v>
       </c>
       <c r="Q23">
-        <v>186.641120779443</v>
+        <v>142.714012038576</v>
       </c>
       <c r="R23">
-        <v>746.5644831177718</v>
+        <v>570.8560481543041</v>
       </c>
       <c r="S23">
-        <v>0.001787049067371197</v>
+        <v>0.0005678507012702612</v>
       </c>
       <c r="T23">
-        <v>0.0008628925603450861</v>
+        <v>0.0002760397170844896</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H24">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I24">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J24">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>13.359317</v>
+        <v>86.42400633333334</v>
       </c>
       <c r="N24">
-        <v>40.077951</v>
+        <v>259.272019</v>
       </c>
       <c r="O24">
-        <v>0.09358180430980555</v>
+        <v>0.3507351803010249</v>
       </c>
       <c r="P24">
-        <v>0.09862147541234521</v>
+        <v>0.3781762944007193</v>
       </c>
       <c r="Q24">
-        <v>335.0829178024629</v>
+        <v>1414.129915582421</v>
       </c>
       <c r="R24">
-        <v>2010.497506814778</v>
+        <v>8484.779493494525</v>
       </c>
       <c r="S24">
-        <v>0.003208347727715022</v>
+        <v>0.005626740169239135</v>
       </c>
       <c r="T24">
-        <v>0.002323768918095105</v>
+        <v>0.00410284893797853</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>25.082339</v>
+        <v>16.362698</v>
       </c>
       <c r="H25">
-        <v>50.16467799999999</v>
+        <v>32.725396</v>
       </c>
       <c r="I25">
-        <v>0.03428388404538221</v>
+        <v>0.01604270254386766</v>
       </c>
       <c r="J25">
-        <v>0.02356250409334497</v>
+        <v>0.01084903786600413</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>54.450333</v>
+        <v>29.19520033333334</v>
       </c>
       <c r="N25">
-        <v>163.350999</v>
+        <v>87.58560100000001</v>
       </c>
       <c r="O25">
-        <v>0.3814237215427815</v>
+        <v>0.1184830961589751</v>
       </c>
       <c r="P25">
-        <v>0.4019645747723113</v>
+        <v>0.1277530763126427</v>
       </c>
       <c r="Q25">
-        <v>1365.741710968887</v>
+        <v>477.7122461038327</v>
       </c>
       <c r="R25">
-        <v>8194.450265813321</v>
+        <v>2866.273476622997</v>
       </c>
       <c r="S25">
-        <v>0.01307668664153087</v>
+        <v>0.001900789068154907</v>
       </c>
       <c r="T25">
-        <v>0.009471291938452257</v>
+        <v>0.001385997962414376</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2031,16 +2031,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H26">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I26">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J26">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K26">
         <v>2</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>14.4437745</v>
+        <v>44.917469</v>
       </c>
       <c r="N26">
-        <v>28.887549</v>
+        <v>89.83493799999999</v>
       </c>
       <c r="O26">
-        <v>0.1011784119468053</v>
+        <v>0.1822888946806947</v>
       </c>
       <c r="P26">
-        <v>0.07108478932534294</v>
+        <v>0.1310339777180443</v>
       </c>
       <c r="Q26">
-        <v>329.7813715546365</v>
+        <v>1954.110697558919</v>
       </c>
       <c r="R26">
-        <v>1978.688229327819</v>
+        <v>11724.66418535352</v>
       </c>
       <c r="S26">
-        <v>0.003157586549051723</v>
+        <v>0.007775292097237178</v>
       </c>
       <c r="T26">
-        <v>0.002287003187184866</v>
+        <v>0.005669508092451364</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2093,16 +2093,16 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H27">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I27">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J27">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>20.16829</v>
       </c>
       <c r="O27">
-        <v>0.04709285083070759</v>
+        <v>0.02728303986213551</v>
       </c>
       <c r="P27">
-        <v>0.04962894725691061</v>
+        <v>0.02941763328729693</v>
       </c>
       <c r="Q27">
-        <v>153.4946500794433</v>
+        <v>292.4702579930211</v>
       </c>
       <c r="R27">
-        <v>1381.45185071499</v>
+        <v>2632.23232193719</v>
       </c>
       <c r="S27">
-        <v>0.001469678654550544</v>
+        <v>0.001163722039130534</v>
       </c>
       <c r="T27">
-        <v>0.00159670671644966</v>
+        <v>0.001272826429355424</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2155,16 +2155,16 @@
         <v>1</v>
       </c>
       <c r="G28">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H28">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I28">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J28">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>46.33817233333334</v>
+        <v>70.42679733333334</v>
       </c>
       <c r="N28">
-        <v>139.014517</v>
+        <v>211.280392</v>
       </c>
       <c r="O28">
-        <v>0.3245981643651428</v>
+        <v>0.2858135894031481</v>
       </c>
       <c r="P28">
-        <v>0.342078784673262</v>
+        <v>0.3081753134575289</v>
       </c>
       <c r="Q28">
-        <v>1057.996718753936</v>
+        <v>3063.880515259679</v>
       </c>
       <c r="R28">
-        <v>9521.970468785426</v>
+        <v>27574.92463733711</v>
       </c>
       <c r="S28">
-        <v>0.01013009374158909</v>
+        <v>0.01219100125030623</v>
       </c>
       <c r="T28">
-        <v>0.01100566349342981</v>
+        <v>0.01333396470113105</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2217,16 +2217,16 @@
         <v>1</v>
       </c>
       <c r="G29">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H29">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I29">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J29">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K29">
         <v>2</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>7.441136999999999</v>
+        <v>8.721912</v>
       </c>
       <c r="N29">
-        <v>14.882274</v>
+        <v>17.443824</v>
       </c>
       <c r="O29">
-        <v>0.05212504700475731</v>
+        <v>0.03539619959402181</v>
       </c>
       <c r="P29">
-        <v>0.03662142855982793</v>
+        <v>0.02544370482376786</v>
       </c>
       <c r="Q29">
-        <v>169.896612951549</v>
+        <v>379.442161853944</v>
       </c>
       <c r="R29">
-        <v>1019.379677709294</v>
+        <v>2276.652971123664</v>
       </c>
       <c r="S29">
-        <v>0.001626723963383054</v>
+        <v>0.001509778154383501</v>
       </c>
       <c r="T29">
-        <v>0.001178217233679412</v>
+        <v>0.001100884617199795</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2279,16 +2279,16 @@
         <v>1</v>
       </c>
       <c r="G30">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H30">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I30">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J30">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>13.359317</v>
+        <v>86.42400633333334</v>
       </c>
       <c r="N30">
-        <v>40.077951</v>
+        <v>259.272019</v>
       </c>
       <c r="O30">
-        <v>0.09358180430980555</v>
+        <v>0.3507351803010249</v>
       </c>
       <c r="P30">
-        <v>0.09862147541234521</v>
+        <v>0.3781762944007193</v>
       </c>
       <c r="Q30">
-        <v>305.020954411409</v>
+        <v>3759.830619616312</v>
       </c>
       <c r="R30">
-        <v>2745.18858970268</v>
+        <v>33838.47557654681</v>
       </c>
       <c r="S30">
-        <v>0.002920510816872558</v>
+        <v>0.01496014598362928</v>
       </c>
       <c r="T30">
-        <v>0.00317293799044145</v>
+        <v>0.01636272971955191</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2341,16 +2341,16 @@
         <v>1</v>
       </c>
       <c r="G31">
-        <v>22.832077</v>
+        <v>43.50447033333333</v>
       </c>
       <c r="H31">
-        <v>68.49623099999999</v>
+        <v>130.513411</v>
       </c>
       <c r="I31">
-        <v>0.03120810544755168</v>
+        <v>0.04265367953904556</v>
       </c>
       <c r="J31">
-        <v>0.03217289111905</v>
+        <v>0.04326746536421927</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>54.450333</v>
+        <v>29.19520033333334</v>
       </c>
       <c r="N31">
-        <v>163.350999</v>
+        <v>87.58560100000001</v>
       </c>
       <c r="O31">
-        <v>0.3814237215427815</v>
+        <v>0.1184830961589751</v>
       </c>
       <c r="P31">
-        <v>0.4019645747723113</v>
+        <v>0.1277530763126427</v>
       </c>
       <c r="Q31">
-        <v>1243.214195731641</v>
+        <v>1270.121726777224</v>
       </c>
       <c r="R31">
-        <v>11188.92776158477</v>
+        <v>11431.09554099501</v>
       </c>
       <c r="S31">
-        <v>0.01190351172210472</v>
+        <v>0.005053740014358844</v>
       </c>
       <c r="T31">
-        <v>0.0129323624978648</v>
+        <v>0.005527551804529729</v>
       </c>
     </row>
     <row r="32" spans="1:20">
@@ -2403,16 +2403,16 @@
         <v>1</v>
       </c>
       <c r="G32">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H32">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I32">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J32">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K32">
         <v>2</v>
@@ -2421,28 +2421,28 @@
         <v>1</v>
       </c>
       <c r="M32">
-        <v>14.4437745</v>
+        <v>44.917469</v>
       </c>
       <c r="N32">
-        <v>28.887549</v>
+        <v>89.83493799999999</v>
       </c>
       <c r="O32">
-        <v>0.1011784119468053</v>
+        <v>0.1822888946806947</v>
       </c>
       <c r="P32">
-        <v>0.07108478932534294</v>
+        <v>0.1310339777180443</v>
       </c>
       <c r="Q32">
-        <v>703.9504842762029</v>
+        <v>8918.412729441003</v>
       </c>
       <c r="R32">
-        <v>4223.702905657218</v>
+        <v>53510.47637664602</v>
       </c>
       <c r="S32">
-        <v>0.006740176286703101</v>
+        <v>0.03548584228198837</v>
       </c>
       <c r="T32">
-        <v>0.004881831237375639</v>
+        <v>0.0258752041041229</v>
       </c>
     </row>
     <row r="33" spans="1:20">
@@ -2465,16 +2465,16 @@
         <v>1</v>
       </c>
       <c r="G33">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H33">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I33">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J33">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K33">
         <v>3</v>
@@ -2489,22 +2489,22 @@
         <v>20.16829</v>
       </c>
       <c r="O33">
-        <v>0.04709285083070759</v>
+        <v>0.02728303986213551</v>
       </c>
       <c r="P33">
-        <v>0.04962894725691061</v>
+        <v>0.02941763328729693</v>
       </c>
       <c r="Q33">
-        <v>327.6492930690866</v>
+        <v>1334.812032463789</v>
       </c>
       <c r="R33">
-        <v>2948.84363762178</v>
+        <v>12013.3082921741</v>
       </c>
       <c r="S33">
-        <v>0.003137172350651863</v>
+        <v>0.005311138954552428</v>
       </c>
       <c r="T33">
-        <v>0.003408326131318746</v>
+        <v>0.005809083100621061</v>
       </c>
     </row>
     <row r="34" spans="1:20">
@@ -2527,16 +2527,16 @@
         <v>1</v>
       </c>
       <c r="G34">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H34">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I34">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J34">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K34">
         <v>3</v>
@@ -2545,28 +2545,28 @@
         <v>1</v>
       </c>
       <c r="M34">
-        <v>46.33817233333334</v>
+        <v>70.42679733333334</v>
       </c>
       <c r="N34">
-        <v>139.014517</v>
+        <v>211.280392</v>
       </c>
       <c r="O34">
-        <v>0.3245981643651428</v>
+        <v>0.2858135894031481</v>
       </c>
       <c r="P34">
-        <v>0.342078784673262</v>
+        <v>0.3081753134575289</v>
       </c>
       <c r="Q34">
-        <v>2258.397128432333</v>
+        <v>13983.31784525441</v>
       </c>
       <c r="R34">
-        <v>20325.574155891</v>
+        <v>125849.8606072897</v>
       </c>
       <c r="S34">
-        <v>0.02162367256081816</v>
+        <v>0.05563880330381541</v>
       </c>
       <c r="T34">
-        <v>0.02349266154561215</v>
+        <v>0.06085520163879998</v>
       </c>
     </row>
     <row r="35" spans="1:20">
@@ -2589,16 +2589,16 @@
         <v>1</v>
       </c>
       <c r="G35">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H35">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I35">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J35">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K35">
         <v>2</v>
@@ -2607,28 +2607,28 @@
         <v>1</v>
       </c>
       <c r="M35">
-        <v>7.441136999999999</v>
+        <v>8.721912</v>
       </c>
       <c r="N35">
-        <v>14.882274</v>
+        <v>17.443824</v>
       </c>
       <c r="O35">
-        <v>0.05212504700475731</v>
+        <v>0.03539619959402181</v>
       </c>
       <c r="P35">
-        <v>0.03662142855982793</v>
+        <v>0.02544370482376786</v>
       </c>
       <c r="Q35">
-        <v>362.660881663278</v>
+        <v>1731.74519263016</v>
       </c>
       <c r="R35">
-        <v>2175.965289979668</v>
+        <v>10390.47115578096</v>
       </c>
       <c r="S35">
-        <v>0.003472400870943329</v>
+        <v>0.006890512767524407</v>
       </c>
       <c r="T35">
-        <v>0.002515019536492462</v>
+        <v>0.005024353735919509</v>
       </c>
     </row>
     <row r="36" spans="1:20">
@@ -2651,16 +2651,16 @@
         <v>1</v>
       </c>
       <c r="G36">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H36">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I36">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J36">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K36">
         <v>3</v>
@@ -2669,28 +2669,28 @@
         <v>1</v>
       </c>
       <c r="M36">
-        <v>13.359317</v>
+        <v>86.42400633333334</v>
       </c>
       <c r="N36">
-        <v>40.077951</v>
+        <v>259.272019</v>
       </c>
       <c r="O36">
-        <v>0.09358180430980555</v>
+        <v>0.3507351803010249</v>
       </c>
       <c r="P36">
-        <v>0.09862147541234521</v>
+        <v>0.3781762944007193</v>
       </c>
       <c r="Q36">
-        <v>651.0969602681979</v>
+        <v>17159.58123581028</v>
       </c>
       <c r="R36">
-        <v>5859.872642413782</v>
+        <v>154436.2311222925</v>
       </c>
       <c r="S36">
-        <v>0.006234115026508453</v>
+        <v>0.06827696943748614</v>
       </c>
       <c r="T36">
-        <v>0.006772945434789577</v>
+        <v>0.07467825502493283</v>
       </c>
     </row>
     <row r="37" spans="1:20">
@@ -2713,16 +2713,16 @@
         <v>1</v>
       </c>
       <c r="G37">
-        <v>48.737294</v>
+        <v>198.5510966666667</v>
       </c>
       <c r="H37">
-        <v>146.211882</v>
+        <v>595.65329</v>
       </c>
       <c r="I37">
-        <v>0.06661674320651284</v>
+        <v>0.1946681521337158</v>
       </c>
       <c r="J37">
-        <v>0.06867617226847689</v>
+        <v>0.1974694239978009</v>
       </c>
       <c r="K37">
         <v>3</v>
@@ -2731,28 +2731,28 @@
         <v>1</v>
       </c>
       <c r="M37">
-        <v>54.450333</v>
+        <v>29.19520033333334</v>
       </c>
       <c r="N37">
-        <v>163.350999</v>
+        <v>87.58560100000001</v>
       </c>
       <c r="O37">
-        <v>0.3814237215427815</v>
+        <v>0.1184830961589751</v>
       </c>
       <c r="P37">
-        <v>0.4019645747723113</v>
+        <v>0.1277530763126427</v>
       </c>
       <c r="Q37">
-        <v>2653.761887818902</v>
+        <v>5796.739043586366</v>
       </c>
       <c r="R37">
-        <v>23883.85699037012</v>
+        <v>52170.65139227729</v>
       </c>
       <c r="S37">
-        <v>0.02540920611088794</v>
+        <v>0.02306488538834904</v>
       </c>
       <c r="T37">
-        <v>0.02760538838288831</v>
+        <v>0.02522732639340466</v>
       </c>
     </row>
   </sheetData>
